--- a/b_Images_and_Queries.xlsx
+++ b/b_Images_and_Queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherm\Documents\Intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8EF21F3-41CB-4527-BBCF-369FBCED16AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5DE9C82-C52B-4EA2-AB6E-5FC036E24D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{FA7493DD-E3D9-4A02-903A-2D504FF56B4F}"/>
   </bookViews>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4F059-6405-4410-910D-64BED7686353}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1797,7 +1797,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>4</v>
